--- a/reservations.xlsx
+++ b/reservations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Reservation ID</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>2024-03-05T03:50:44</t>
+  </si>
+  <si>
+    <t>2024-03-05T09:14:23</t>
+  </si>
+  <si>
+    <t>2024-03-05T09:18:24</t>
+  </si>
+  <si>
+    <t>2024-03-05T09:38:20</t>
+  </si>
+  <si>
+    <t>2024-03-05T10:20:34</t>
   </si>
 </sst>
 </file>
@@ -101,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -279,7 +291,7 @@
         <v>37.0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -312,6 +324,98 @@
       </c>
       <c r="G9" t="n">
         <v>73.80000305175781</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>98.4000015258789</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>98.4000015258789</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>98.4000015258789</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>98.4000015258789</v>
       </c>
     </row>
   </sheetData>
